--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_16_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_16_28.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1883506.971488523</v>
+        <v>1987686.605939594</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283195</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9954745.750256769</v>
+        <v>9954745.750256773</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -665,7 +667,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>159.2282838500202</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>24.14763241892861</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414546</v>
@@ -814,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>151.851873825749</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,10 +834,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -880,10 +882,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>131.5106022253281</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>321.0102312166711</v>
+        <v>317.8977367051468</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -911,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -993,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1057,22 +1059,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>31.05052223136902</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>203.6114711954862</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1120,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,13 +1135,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,7 +1150,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1190,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>275.9289298340562</v>
       </c>
       <c r="Y8" t="n">
-        <v>242.6337954275707</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>120.6353666620236</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1348,16 +1350,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>188.2831415098782</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1421,10 +1423,10 @@
         <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576146</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881266</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1531,13 +1533,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>43.7384661432547</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1582,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>182.3203821379247</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1661,7 +1663,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881266</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1670,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784668</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1771,19 +1773,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229388</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>35.2363147751902</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>105.6507867899493</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1856,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187844</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1938,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2002,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>130.1208074460156</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>21.90286287505374</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229388</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2093,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.803338518785</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2175,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2251,13 +2253,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>51.36569740310382</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>25.7319404949734</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2412,7 +2414,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>48.13676080754342</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2491,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2533,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>78.71385496658196</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2555,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2603,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2649,7 +2651,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2719,19 +2721,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>160.6789846282036</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>139.3687739767481</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2798,7 +2800,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722609</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2886,7 +2888,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2950,10 +2952,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>45.66054613217656</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3199,13 +3201,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>26.70391688093346</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3250,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>212.4076860934774</v>
       </c>
     </row>
     <row r="35">
@@ -3269,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3326,7 +3328,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174149</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3421,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3439,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>34.22340015156063</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>179.8780801519744</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3551,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881302</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3658,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>95.12712756824166</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>107.7122866515573</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3679,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856033</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3755,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3904,19 +3906,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>99.97427419833815</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3952,10 +3954,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>104.7777418077841</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3983,7 +3985,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,10 +4137,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>123.9815576456788</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4147,7 +4149,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4180,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>176.1811323375794</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2047.583838282732</v>
+        <v>1661.795585684488</v>
       </c>
       <c r="C2" t="n">
-        <v>1678.62132134232</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.35562273557</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E2" t="n">
         <v>934.5673701373257</v>
@@ -4328,22 +4330,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
         <v>3018.302393296687</v>
@@ -4355,25 +4357,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3164.769171255616</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>3164.769171255616</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>3164.769171255616</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.97538618064</v>
+        <v>2812.000515985501</v>
       </c>
       <c r="X2" t="n">
-        <v>2047.583838282732</v>
+        <v>2438.534757724422</v>
       </c>
       <c r="Y2" t="n">
-        <v>2047.583838282732</v>
+        <v>2048.39542574861</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686076</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064751</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>827.064395508013</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986304</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486469</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>457.9680739783734</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="C4" t="n">
-        <v>457.9680739783734</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D4" t="n">
-        <v>457.9680739783734</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
         <v>66.51211643218343</v>
@@ -4528,10 +4530,10 @@
         <v>590.8070661251695</v>
       </c>
       <c r="X4" t="n">
-        <v>457.9680739783734</v>
+        <v>590.8070661251695</v>
       </c>
       <c r="Y4" t="n">
-        <v>457.9680739783734</v>
+        <v>370.0144869816394</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1590.416669135309</v>
+        <v>1303.529887077737</v>
       </c>
       <c r="C5" t="n">
-        <v>1590.416669135309</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4580,37 +4582,37 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136267</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520489</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V5" t="n">
-        <v>2678.274518176919</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W5" t="n">
-        <v>2678.274518176919</v>
+        <v>2388.243802269323</v>
       </c>
       <c r="X5" t="n">
-        <v>2304.808759915839</v>
+        <v>2014.778044008243</v>
       </c>
       <c r="Y5" t="n">
-        <v>1914.669427940027</v>
+        <v>1624.638712032431</v>
       </c>
     </row>
     <row r="6">
@@ -4620,70 +4622,70 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927784</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064586</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4699,43 +4701,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>775.7875500159902</v>
+        <v>538.8965081646988</v>
       </c>
       <c r="C7" t="n">
-        <v>775.7875500159902</v>
+        <v>538.8965081646988</v>
       </c>
       <c r="D7" t="n">
-        <v>625.6709106036544</v>
+        <v>538.8965081646988</v>
       </c>
       <c r="E7" t="n">
-        <v>477.7578170212613</v>
+        <v>390.9834145823057</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>244.0934670843954</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>244.0934670843954</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>97.87628030225315</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4750,25 +4752,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672848</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1440.110053950134</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1440.110053950134</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V7" t="n">
-        <v>1185.425565744247</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="W7" t="n">
-        <v>1185.425565744247</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="X7" t="n">
-        <v>957.4360148462299</v>
+        <v>941.3375521384687</v>
       </c>
       <c r="Y7" t="n">
-        <v>957.4360148462299</v>
+        <v>720.5449729949386</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1320.35562273557</v>
+        <v>1601.11348746897</v>
       </c>
       <c r="C8" t="n">
-        <v>1320.35562273557</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176917</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W8" t="n">
-        <v>2325.505862906803</v>
+        <v>2656.568750250374</v>
       </c>
       <c r="X8" t="n">
-        <v>1952.040104645723</v>
+        <v>2377.852659508903</v>
       </c>
       <c r="Y8" t="n">
-        <v>1706.955462799692</v>
+        <v>1987.713327533092</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4884,49 +4886,49 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>944.7237329438971</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="C10" t="n">
-        <v>775.7875500159902</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="D10" t="n">
-        <v>625.6709106036544</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="E10" t="n">
-        <v>477.7578170212613</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4996,16 +4998,16 @@
         <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1134.908724368016</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1134.908724368016</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X10" t="n">
-        <v>1134.908724368016</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="Y10" t="n">
-        <v>944.7237329438971</v>
+        <v>370.0144869816389</v>
       </c>
     </row>
     <row r="11">
@@ -5057,7 +5059,7 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852254</v>
@@ -5069,7 +5071,7 @@
         <v>4606.285157492576</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
@@ -5115,31 +5117,31 @@
         <v>93.81666304797183</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273898</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803936</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K12" t="n">
-        <v>245.2306927803936</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="L12" t="n">
-        <v>245.2306927803936</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438179</v>
+        <v>840.8417932021781</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>868.6673633290468</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C13" t="n">
-        <v>699.7311804011399</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D13" t="n">
-        <v>549.6145409888042</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F13" t="n">
         <v>402.7245934908938</v>
@@ -5230,19 +5232,19 @@
         <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>2043.199616443681</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>1788.515128237794</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1499.097958200834</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X13" t="n">
-        <v>1271.108407302816</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y13" t="n">
-        <v>1050.315828159286</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="14">
@@ -5273,10 +5275,10 @@
         <v>93.81666304797183</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192588</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111713</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075805</v>
@@ -5309,13 +5311,13 @@
         <v>4405.252601474782</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X14" t="n">
         <v>3094.515198591809</v>
@@ -5361,19 +5363,19 @@
         <v>243.4633055756265</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756265</v>
+        <v>738.7889117913851</v>
       </c>
       <c r="M15" t="n">
-        <v>840.8417932021781</v>
+        <v>738.7889117913851</v>
       </c>
       <c r="N15" t="n">
-        <v>1468.439756756785</v>
+        <v>1366.386875345991</v>
       </c>
       <c r="O15" t="n">
-        <v>2020.349486996071</v>
+        <v>1918.296605585278</v>
       </c>
       <c r="P15" t="n">
-        <v>2443.972636491139</v>
+        <v>2341.919755080346</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>726.9555321712448</v>
+        <v>1098.667160263534</v>
       </c>
       <c r="C16" t="n">
-        <v>558.019349243338</v>
+        <v>929.730977335627</v>
       </c>
       <c r="D16" t="n">
-        <v>407.9027098310022</v>
+        <v>779.6143379232913</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310022</v>
+        <v>631.7012443408981</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797183</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797183</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797183</v>
@@ -5446,40 +5448,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.56011257081</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279795</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853354</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580254</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2411.370846433597</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2228.516012088501</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>2008.914547111442</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U16" t="n">
-        <v>1719.83932045564</v>
+        <v>2273.199413378169</v>
       </c>
       <c r="V16" t="n">
-        <v>1465.154832249753</v>
+        <v>2018.514925172282</v>
       </c>
       <c r="W16" t="n">
-        <v>1175.737662212792</v>
+        <v>1729.097755135321</v>
       </c>
       <c r="X16" t="n">
-        <v>947.748111314775</v>
+        <v>1501.108204237304</v>
       </c>
       <c r="Y16" t="n">
-        <v>726.9555321712448</v>
+        <v>1280.315625093774</v>
       </c>
     </row>
     <row r="17">
@@ -5489,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406466</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168588</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797183</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
@@ -5531,34 +5533,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5586,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>577.388077746847</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
         <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589157</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143764</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O18" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5650,34 +5652,34 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>382.4184417036918</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>382.4184417036918</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E19" t="n">
-        <v>382.4184417036918</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797183</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168593</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5823,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756265</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>577.388077746847</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M21" t="n">
-        <v>1465.200520057987</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N21" t="n">
-        <v>2092.798483612594</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3175.341129796737</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C22" t="n">
-        <v>3006.40494686883</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D22" t="n">
-        <v>2856.288307456495</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>2708.375213874102</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>2561.485266376191</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376191</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218389</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.02030972914</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.430181389148</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098133</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671692</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398592</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4690.833152398592</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>4690.833152398592</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>4638.948609567174</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>4349.873382911372</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V22" t="n">
-        <v>4095.188894705485</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W22" t="n">
-        <v>3805.771724668524</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X22" t="n">
-        <v>3577.782173770507</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y22" t="n">
-        <v>3356.989594626977</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -5978,37 +5980,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192588</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111713</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6060,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>577.388077746847</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
         <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589157</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N24" t="n">
-        <v>1670.092171589157</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2252.221377756499</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,37 +6123,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.868625753638</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257311</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133953</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310022</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797183</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797183</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6181,16 +6183,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1608.876909444017</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1319.459739407057</v>
       </c>
       <c r="X25" t="n">
-        <v>1144.284195611858</v>
+        <v>1319.459739407057</v>
       </c>
       <c r="Y25" t="n">
-        <v>923.4916164683283</v>
+        <v>1098.667160263527</v>
       </c>
     </row>
     <row r="26">
@@ -6218,19 +6220,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014779</v>
@@ -6251,7 +6253,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
@@ -6260,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6297,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756265</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>1140.291933891999</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>1767.889897446606</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,37 +6360,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>662.1522880254209</v>
+        <v>869.9745311434712</v>
       </c>
       <c r="C28" t="n">
-        <v>493.2161050975141</v>
+        <v>701.0383482155643</v>
       </c>
       <c r="D28" t="n">
-        <v>343.0994656851783</v>
+        <v>550.9217088032285</v>
       </c>
       <c r="E28" t="n">
-        <v>343.0994656851783</v>
+        <v>403.0086152208354</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>256.118667722925</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6406,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1836.684541140056</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V28" t="n">
-        <v>1582.000052934169</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W28" t="n">
-        <v>1292.582882897208</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X28" t="n">
-        <v>1064.593331999191</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y28" t="n">
-        <v>843.8007528556607</v>
+        <v>1051.622995973711</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
         <v>1204.759558406469</v>
@@ -6455,58 +6457,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.584050252739</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>740.5562989961522</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1337.934786622704</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1965.53275017731</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1965.53275017731</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6598,34 +6600,34 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>467.7318369701959</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6677,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6686,61 +6688,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192608</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K33" t="n">
-        <v>244.2098454714574</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L33" t="n">
-        <v>739.5354516872161</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.913939313768</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1964.511902868375</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2516.421633107662</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2978.516248701935</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C34" t="n">
-        <v>2809.580065774028</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D34" t="n">
-        <v>2659.463426361692</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E34" t="n">
-        <v>2511.550332779299</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F34" t="n">
-        <v>2364.660385281389</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>2364.660385281389</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>3388.154264430192</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>3160.164713532175</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y34" t="n">
-        <v>3160.164713532175</v>
+        <v>929.7309773356195</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,64 +6925,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075825</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.89852635594</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068013</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="L36" t="n">
-        <v>315.9123021921482</v>
+        <v>634.560372056552</v>
       </c>
       <c r="M36" t="n">
-        <v>913.2907898187001</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N36" t="n">
-        <v>1540.888753373307</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3045.530642171616</v>
+        <v>2971.848747074063</v>
       </c>
       <c r="C37" t="n">
-        <v>2876.594459243709</v>
+        <v>2802.912564146156</v>
       </c>
       <c r="D37" t="n">
-        <v>2876.594459243709</v>
+        <v>2652.79592473382</v>
       </c>
       <c r="E37" t="n">
-        <v>2728.681365661316</v>
+        <v>2504.882831151427</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661316</v>
+        <v>2504.882831151427</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376196</v>
+        <v>2337.686731866307</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218394</v>
+        <v>2337.686731866307</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866308</v>
+        <v>2337.686731866307</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296632</v>
+        <v>2417.922750296631</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822171</v>
+        <v>2679.61201282217</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998111</v>
+        <v>3070.01060699811</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729146</v>
+        <v>3492.020309729145</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.430181389154</v>
+        <v>3909.430181389153</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098134</v>
+        <v>4278.959462098138</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671693</v>
+        <v>4571.634917671697</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="R37" t="n">
-        <v>4690.833152398593</v>
+        <v>4656.264061336414</v>
       </c>
       <c r="S37" t="n">
-        <v>4690.833152398593</v>
+        <v>4473.409226991318</v>
       </c>
       <c r="T37" t="n">
-        <v>4509.138121942053</v>
+        <v>4253.807762014259</v>
       </c>
       <c r="U37" t="n">
-        <v>4220.062895286251</v>
+        <v>3964.732535358457</v>
       </c>
       <c r="V37" t="n">
-        <v>3965.378407080364</v>
+        <v>3710.048047152571</v>
       </c>
       <c r="W37" t="n">
-        <v>3675.961237043403</v>
+        <v>3420.63087711561</v>
       </c>
       <c r="X37" t="n">
-        <v>3447.971686145386</v>
+        <v>3192.641326217593</v>
       </c>
       <c r="Y37" t="n">
-        <v>3227.179107001856</v>
+        <v>2971.848747074063</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,52 +7162,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192609</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7236,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="L39" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="M39" t="n">
-        <v>1025.119922845744</v>
+        <v>840.8417932021788</v>
       </c>
       <c r="N39" t="n">
-        <v>1652.717886400351</v>
+        <v>1468.439756756786</v>
       </c>
       <c r="O39" t="n">
-        <v>2204.627616639638</v>
+        <v>2020.349486996073</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2443.972636491141</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876688</v>
+        <v>762.5477693179095</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429803</v>
+        <v>593.6115863900026</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>484.811296842975</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>484.811296842975</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>484.811296842975</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>317.615197557855</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000531</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1500.747069396418</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>983.3403484614396</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179085</v>
+        <v>762.5477693179095</v>
       </c>
     </row>
     <row r="41">
@@ -7391,43 +7393,43 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7485,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L42" t="n">
-        <v>738.7889117913853</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="M42" t="n">
-        <v>1336.167399417937</v>
+        <v>680.0291294438167</v>
       </c>
       <c r="N42" t="n">
-        <v>1963.765362972544</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2515.675093211831</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D43" t="n">
-        <v>194.8007783998286</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E43" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F43" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>194.8007783998286</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="44">
@@ -7628,7 +7630,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
         <v>1204.759558406469</v>
@@ -7643,25 +7645,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7682,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7722,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L45" t="n">
-        <v>315.9123021921482</v>
+        <v>740.5562989961527</v>
       </c>
       <c r="M45" t="n">
-        <v>913.2907898187001</v>
+        <v>740.5562989961527</v>
       </c>
       <c r="N45" t="n">
-        <v>1540.888753373307</v>
+        <v>1368.15426255076</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612594</v>
+        <v>1920.063992790047</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2343.687142285115</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C46" t="n">
-        <v>705.9324428257312</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133954</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1277.309669727408</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y46" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
   </sheetData>
@@ -8079,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>-9.481304630298837e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23312,7 +23314,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>2.046363078989089e-12</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23419,13 +23421,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>104.8770068749577</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23470,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>103.8640922513194</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,7 +23661,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>31.1389319349315</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>180.5336875992949</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23890,10 +23892,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>37.12601365261219</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>126.7126101431586</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23905,10 +23907,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24139,7 +24141,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24172,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>166.0397529241845</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>226.4057028288546</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>131.6952193743939</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24379,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24421,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>173.4237883572461</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24607,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>4.845153664065236</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>146.8157004124961</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24838,10 +24840,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>121.5862749664513</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25072,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25087,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>113.5907959652904</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25138,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>6.176967258617395</v>
       </c>
     </row>
     <row r="35">
@@ -25309,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25327,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>32.15184655856102</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>37.52737017531385</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25546,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>72.11969353038617</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>40.90318636665509</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25792,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>40.32043864788574</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25840,10 +25842,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>147.3599015160439</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26023,10 +26025,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>24.63391537253352</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26035,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>110.0033420516648</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>857263.0331147036</v>
+        <v>857263.0331147034</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>857263.0331147034</v>
+        <v>857263.0331147035</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>857263.0331147034</v>
+        <v>857263.0331147035</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>857263.0331147035</v>
+        <v>857263.0331147036</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>857263.0331147036</v>
+        <v>857263.0331147035</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>857263.0331147035</v>
+        <v>857263.0331147037</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>857263.0331147035</v>
+        <v>857263.0331147036</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>857263.0331147036</v>
+        <v>857263.0331147038</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>857263.0331147035</v>
+        <v>857263.0331147037</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>857263.0331147036</v>
+        <v>857263.0331147035</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>574729.2389049986</v>
+      </c>
+      <c r="C2" t="n">
+        <v>574729.2389049984</v>
+      </c>
+      <c r="D2" t="n">
         <v>574729.2389049985</v>
       </c>
-      <c r="C2" t="n">
-        <v>574729.2389049986</v>
-      </c>
-      <c r="D2" t="n">
-        <v>574729.2389049984</v>
-      </c>
       <c r="E2" t="n">
+        <v>565002.6197830042</v>
+      </c>
+      <c r="F2" t="n">
+        <v>565002.6197830042</v>
+      </c>
+      <c r="G2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="H2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="I2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="J2" t="n">
         <v>565002.6197830043</v>
       </c>
-      <c r="F2" t="n">
+      <c r="K2" t="n">
         <v>565002.6197830043</v>
-      </c>
-      <c r="G2" t="n">
-        <v>565002.6197830043</v>
-      </c>
-      <c r="H2" t="n">
-        <v>565002.6197830045</v>
-      </c>
-      <c r="I2" t="n">
-        <v>565002.6197830044</v>
-      </c>
-      <c r="J2" t="n">
-        <v>565002.6197830042</v>
-      </c>
-      <c r="K2" t="n">
-        <v>565002.6197830046</v>
       </c>
       <c r="L2" t="n">
         <v>565002.6197830046</v>
       </c>
       <c r="M2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830046</v>
       </c>
       <c r="N2" t="n">
         <v>565002.6197830044</v>
       </c>
       <c r="O2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="P2" t="n">
         <v>565002.6197830045</v>
-      </c>
-      <c r="P2" t="n">
-        <v>565002.6197830044</v>
       </c>
     </row>
     <row r="3">
@@ -26378,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.246394276677165e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>4.40260464529274e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551167</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89744.12305813246</v>
+        <v>89744.12305813245</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813241</v>
+        <v>89744.12305813245</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813251</v>
+        <v>89744.12305813245</v>
       </c>
       <c r="E4" t="n">
-        <v>10557.0882867812</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="F4" t="n">
         <v>10557.08828678121</v>
@@ -26433,22 +26435,22 @@
         <v>10557.08828678121</v>
       </c>
       <c r="H4" t="n">
-        <v>10557.08828678128</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="I4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="J4" t="n">
-        <v>10557.08828678124</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="K4" t="n">
-        <v>10557.08828678125</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="L4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="M4" t="n">
-        <v>10557.0882867812</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="N4" t="n">
         <v>10557.08828678121</v>
@@ -26497,13 +26499,13 @@
         <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="M5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="N5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="O5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-951693.5704421201</v>
+        <v>-951693.57044212</v>
       </c>
       <c r="C6" t="n">
         <v>377051.1752854729</v>
       </c>
       <c r="D6" t="n">
-        <v>377051.1752854729</v>
+        <v>377051.1752854728</v>
       </c>
       <c r="E6" t="n">
-        <v>127910.5398649612</v>
+        <v>127910.5398649611</v>
       </c>
       <c r="F6" t="n">
+        <v>453323.0016723159</v>
+      </c>
+      <c r="G6" t="n">
+        <v>453323.0016723159</v>
+      </c>
+      <c r="H6" t="n">
+        <v>453323.0016723163</v>
+      </c>
+      <c r="I6" t="n">
+        <v>453323.0016723162</v>
+      </c>
+      <c r="J6" t="n">
+        <v>235791.7992750384</v>
+      </c>
+      <c r="K6" t="n">
+        <v>453323.0016723159</v>
+      </c>
+      <c r="L6" t="n">
+        <v>453323.0016723158</v>
+      </c>
+      <c r="M6" t="n">
+        <v>368267.9737368046</v>
+      </c>
+      <c r="N6" t="n">
         <v>453323.001672316</v>
       </c>
-      <c r="G6" t="n">
-        <v>453323.001672316</v>
-      </c>
-      <c r="H6" t="n">
+      <c r="O6" t="n">
+        <v>453323.0016723161</v>
+      </c>
+      <c r="P6" t="n">
         <v>453323.0016723162</v>
-      </c>
-      <c r="I6" t="n">
-        <v>453323.0016723161</v>
-      </c>
-      <c r="J6" t="n">
-        <v>235791.7992750383</v>
-      </c>
-      <c r="K6" t="n">
-        <v>453323.0016723163</v>
-      </c>
-      <c r="L6" t="n">
-        <v>453323.0016723163</v>
-      </c>
-      <c r="M6" t="n">
-        <v>368267.9737368044</v>
-      </c>
-      <c r="N6" t="n">
-        <v>453323.0016723161</v>
-      </c>
-      <c r="O6" t="n">
-        <v>453323.0016723162</v>
-      </c>
-      <c r="P6" t="n">
-        <v>453323.0016723161</v>
       </c>
     </row>
   </sheetData>
@@ -26738,7 +26740,7 @@
         <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26790,10 +26792,10 @@
         <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26817,13 +26819,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26987,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27018,31 +27020,31 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>341.306832697355</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>4.547473508864641e-13</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>4.547473508864641e-13</v>
+      </c>
+      <c r="M4" t="n">
         <v>341.3068326973553</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>831.4014554022931</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>341.306832697355</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.306832697355</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27385,7 +27387,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>44.6896862895999</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>345.5834682595404</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>27.98010635618829</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27552,10 +27554,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27600,10 +27602,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>94.19905316370901</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61.72361044680952</v>
+        <v>64.83610495833375</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27631,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27777,22 +27779,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>65.30189817846907</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,7 +27827,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>15.93747808068301</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -27840,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,13 +27855,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27910,16 +27912,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>93.80217084441284</v>
       </c>
       <c r="Y8" t="n">
-        <v>143.6041432284829</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>24.11964825229715</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28068,16 +28070,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>30.3015118422166</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28390,7 +28392,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28494,7 +28496,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>-7.541226902200529e-12</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -30277,7 +30279,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>-1.148716484183545e-12</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30399,7 +30401,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>5.184593495262864e-12</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -31276,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31287,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31835,7 +31837,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420754</v>
@@ -31847,10 +31849,10 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>581.3243739860832</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>639.8517673857166</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437242</v>
@@ -31862,7 +31864,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742437</v>
@@ -32017,7 +32019,7 @@
         <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32081,10 +32083,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071783</v>
@@ -32096,7 +32098,7 @@
         <v>561.8765786214697</v>
       </c>
       <c r="Q15" t="n">
-        <v>250.1723312270676</v>
+        <v>353.2560498238282</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32224,37 +32226,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32265,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32312,37 +32314,37 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>193.1175412796309</v>
       </c>
       <c r="O18" t="n">
-        <v>363.537151478685</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32390,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,37 +32463,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32500,10 +32502,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32549,37 +32551,37 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420754</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473071</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>538.5853835133132</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32625,28 +32627,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32655,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32698,37 +32700,37 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162578</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
         <v>345.4516222043725</v>
@@ -32737,10 +32739,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32786,37 +32788,37 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>333.9544784328829</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214697</v>
+        <v>400.8433522134843</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
         <v>0.1935814387275954</v>
@@ -32862,28 +32864,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
         <v>206.5643005515927</v>
@@ -32892,7 +32894,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -32935,37 +32937,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -32974,10 +32976,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33023,37 +33025,37 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420754</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>210.3948924365571</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437242</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33099,28 +33101,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33129,7 +33131,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33172,37 +33174,37 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33211,10 +33213,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33257,40 +33259,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>454.8099857531878</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
         <v>0.1935814387275954</v>
@@ -33336,28 +33338,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
         <v>206.5643005515927</v>
@@ -33366,7 +33368,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,19 +33502,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>138.5955196772184</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>363.5371514786837</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33524,13 +33526,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,13 +33727,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33740,34 +33742,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>211.7351844430274</v>
+        <v>531.8166820790237</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P39" t="n">
-        <v>213.3000196296242</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>250.1723312270658</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669205</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,13 +34201,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34214,34 +34216,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>581.3243739860818</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P42" t="n">
-        <v>134.7284881171895</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817556</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,13 +34438,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34451,34 +34453,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>211.7351844430274</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>314.4610577451597</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P46" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35483,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754087</v>
@@ -35495,10 +35497,10 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>439.1903400640649</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>508.5100553023833</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992797</v>
@@ -35510,7 +35512,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35665,7 +35667,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35729,10 +35731,10 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>633.937336923845</v>
@@ -35744,7 +35746,7 @@
         <v>427.9021712071394</v>
       </c>
       <c r="Q15" t="n">
-        <v>110.1905571410461</v>
+        <v>213.2742757378066</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35814,7 +35816,7 @@
         <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899006</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060453</v>
@@ -35878,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35960,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>61.77582919629761</v>
       </c>
       <c r="O18" t="n">
-        <v>220.9409070342406</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36050,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36197,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754087</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678995</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674329</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>396.4513495912949</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N21" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36285,19 +36287,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,31 +36354,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462705</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36434,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641936</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>191.3582339884385</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071394</v>
+        <v>266.868944799154</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36522,19 +36524,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36589,31 +36591,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902957</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754087</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>68.26085851453884</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992797</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36759,19 +36761,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,31 +36828,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36905,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>320.8355783388575</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
         <v>264.3325884096349</v>
@@ -36996,19 +36998,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,22 +37147,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K33" t="n">
-        <v>0.7540807028594299</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>220.9409070342392</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37169,7 +37171,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>73.18080466315317</v>
+        <v>393.2623022991496</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060409</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462697</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P39" t="n">
-        <v>79.325612215294</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>110.1905571410443</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492471</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>439.1903400640635</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P42" t="n">
-        <v>0.7540807028592577</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.454324036775</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>73.18080466315317</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>174.4792836591382</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_16_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_16_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1987686.605939594</v>
+        <v>1983673.995925602</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9954745.750256773</v>
+        <v>9954745.750256771</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>133.3353942071055</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -667,7 +667,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>159.2282838500202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247739</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734116405</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414546</v>
@@ -816,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>151.851873825749</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>177.0650478152074</v>
       </c>
     </row>
     <row r="5">
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>317.8977367051468</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>269.6425323314746</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1056,10 +1056,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1071,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>31.05052223136902</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>37.68656955246517</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1135,22 +1135,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>374.7451007731817</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>275.9289298340562</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1293,25 +1293,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>120.6353666620236</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>13.42874471570741</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881266</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>43.7384661432547</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>156.5238857907025</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784668</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229388</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>20.43112068613155</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>105.6507867899493</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -2007,16 +2007,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>21.90286287505374</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>89.67992556049168</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,10 +2295,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>25.7319404949734</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2535,13 +2535,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>78.71385496658196</v>
+        <v>201.8437228691386</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2718,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>160.6789846282036</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>83.06560892427719</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2797,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>18.49605685438627</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012164</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3252,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>212.4076860934774</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3328,7 +3328,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174149</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3423,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>34.22340015156063</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881302</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>107.7122866515573</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856033</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3954,10 +3954,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>104.7777418077841</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,25 +4137,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>123.9815576456788</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>265.56576948799</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1661.795585684488</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C2" t="n">
-        <v>1292.833068744076</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D2" t="n">
-        <v>934.5673701373257</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E2" t="n">
         <v>934.5673701373257</v>
@@ -4321,61 +4321,61 @@
         <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J2" t="n">
         <v>255.391247391209</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
         <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T2" t="n">
-        <v>3164.769171255616</v>
+        <v>3119.628073993395</v>
       </c>
       <c r="U2" t="n">
-        <v>3164.769171255616</v>
+        <v>2866.097597267231</v>
       </c>
       <c r="V2" t="n">
-        <v>3164.769171255616</v>
+        <v>2535.03470992366</v>
       </c>
       <c r="W2" t="n">
-        <v>2812.000515985501</v>
+        <v>2182.266054653546</v>
       </c>
       <c r="X2" t="n">
-        <v>2438.534757724422</v>
+        <v>2182.266054653546</v>
       </c>
       <c r="Y2" t="n">
-        <v>2048.39542574861</v>
+        <v>2182.266054653546</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811085</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999815</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387302</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332748</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601598</v>
       </c>
       <c r="G3" t="n">
         <v>176.0213023927779</v>
@@ -4406,13 +4406,13 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L3" t="n">
         <v>765.1517452158137</v>
@@ -4421,16 +4421,16 @@
         <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992585</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.91239341064</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886743</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533343</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4442,7 +4442,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4451,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>216.6287558445192</v>
+        <v>994.2880032601529</v>
       </c>
       <c r="C4" t="n">
-        <v>216.6287558445192</v>
+        <v>825.351820332246</v>
       </c>
       <c r="D4" t="n">
-        <v>66.51211643218343</v>
+        <v>675.2351809199102</v>
       </c>
       <c r="E4" t="n">
-        <v>66.51211643218343</v>
+        <v>527.3220873375171</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218343</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791191</v>
       </c>
       <c r="K4" t="n">
         <v>315.6219318279955</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764917</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760409</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581906</v>
@@ -4506,7 +4506,7 @@
         <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935979</v>
       </c>
       <c r="Q4" t="n">
         <v>1927.294548088493</v>
@@ -4515,25 +4515,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672848</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U4" t="n">
-        <v>1134.908724368017</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="V4" t="n">
-        <v>880.2242361621301</v>
+        <v>1582.779602640134</v>
       </c>
       <c r="W4" t="n">
-        <v>590.8070661251695</v>
+        <v>1582.779602640134</v>
       </c>
       <c r="X4" t="n">
-        <v>590.8070661251695</v>
+        <v>1354.790051742117</v>
       </c>
       <c r="Y4" t="n">
-        <v>370.0144869816394</v>
+        <v>1175.936468090393</v>
       </c>
     </row>
     <row r="5">
@@ -4543,46 +4543,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1303.529887077737</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="C5" t="n">
-        <v>934.5673701373257</v>
+        <v>1908.990616856006</v>
       </c>
       <c r="D5" t="n">
-        <v>934.5673701373257</v>
+        <v>1550.724918249256</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>1164.936665651011</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>753.9507608614038</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>338.8783107064002</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
         <v>3018.302393296687</v>
@@ -4594,25 +4594,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3072.075344883008</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V5" t="n">
-        <v>2741.012457539437</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W5" t="n">
-        <v>2388.243802269323</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X5" t="n">
-        <v>2014.778044008243</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="Y5" t="n">
-        <v>1624.638712032431</v>
+        <v>2277.953133796418</v>
       </c>
     </row>
     <row r="6">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>538.8965081646988</v>
+        <v>777.6936570343842</v>
       </c>
       <c r="C7" t="n">
-        <v>538.8965081646988</v>
+        <v>608.7574741064773</v>
       </c>
       <c r="D7" t="n">
-        <v>538.8965081646988</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="E7" t="n">
-        <v>390.9834145823057</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F7" t="n">
-        <v>244.0934670843954</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G7" t="n">
-        <v>244.0934670843954</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>97.87628030225315</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218343</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1889.227306116306</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1697.541421943132</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1697.541421943132</v>
       </c>
       <c r="U7" t="n">
-        <v>1424.011591242373</v>
+        <v>1697.541421943132</v>
       </c>
       <c r="V7" t="n">
-        <v>1169.327103036486</v>
+        <v>1697.541421943132</v>
       </c>
       <c r="W7" t="n">
-        <v>1169.327103036486</v>
+        <v>1408.124251906171</v>
       </c>
       <c r="X7" t="n">
-        <v>941.3375521384687</v>
+        <v>1180.134701008154</v>
       </c>
       <c r="Y7" t="n">
-        <v>720.5449729949386</v>
+        <v>959.3421218646239</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1601.11348746897</v>
+        <v>1238.038871968309</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.150970528558</v>
+        <v>1238.038871968309</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>879.7731733615581</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>493.9849207633138</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>487.0394200141104</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520489</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V8" t="n">
-        <v>3009.337405520489</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W8" t="n">
-        <v>2656.568750250374</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="X8" t="n">
-        <v>2377.852659508903</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y8" t="n">
-        <v>1987.713327533092</v>
+        <v>1624.63871203243</v>
       </c>
     </row>
     <row r="9">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.3660221513992</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C10" t="n">
-        <v>188.3660221513992</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D10" t="n">
-        <v>188.3660221513992</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E10" t="n">
-        <v>188.3660221513992</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F10" t="n">
-        <v>188.3660221513992</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>188.3660221513992</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1913.730159486768</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="V10" t="n">
-        <v>880.2242361621296</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="W10" t="n">
-        <v>590.8070661251691</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X10" t="n">
-        <v>590.8070661251691</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y10" t="n">
-        <v>370.0144869816389</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="11">
@@ -5032,46 +5032,46 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756265</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756265</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>840.8417932021781</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>763.7541388327643</v>
+        <v>1089.57599612053</v>
       </c>
       <c r="C13" t="n">
-        <v>594.8179559048574</v>
+        <v>920.6398131926233</v>
       </c>
       <c r="D13" t="n">
-        <v>550.637687073287</v>
+        <v>770.5231737802875</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>622.6100801978944</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>475.720132699984</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797183</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5226,25 +5226,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.286391947399</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741512</v>
+        <v>2009.423761029278</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704551</v>
+        <v>1720.006590992317</v>
       </c>
       <c r="X13" t="n">
-        <v>1166.195182806534</v>
+        <v>1492.0170400943</v>
       </c>
       <c r="Y13" t="n">
-        <v>945.402603663004</v>
+        <v>1271.22446095077</v>
       </c>
     </row>
     <row r="14">
@@ -5269,58 +5269,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756265</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913851</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>738.7889117913851</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1366.386875345991</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1918.296605585278</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2341.919755080346</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263534</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>929.730977335627</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232913</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408981</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>196.5408620426154</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5463,25 +5463,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2273.199413378169</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172282</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135321</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237304</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093774</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5506,10 +5506,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
@@ -5521,16 +5521,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5591,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1731.250242493492</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D19" t="n">
-        <v>322.7933138979686</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="E19" t="n">
-        <v>322.7933138979686</v>
+        <v>266.4891497944943</v>
       </c>
       <c r="F19" t="n">
-        <v>175.9033664000583</v>
+        <v>266.4891497944943</v>
       </c>
       <c r="G19" t="n">
         <v>175.9033664000583</v>
@@ -5703,22 +5703,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="20">
@@ -5749,28 +5749,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5828,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5980,31 +5980,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1700.311647517212</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2252.221377756499</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E25" t="n">
         <v>631.7012443408906</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1608.876909444017</v>
+        <v>1551.549009249638</v>
       </c>
       <c r="W25" t="n">
-        <v>1319.459739407057</v>
+        <v>1262.131839212678</v>
       </c>
       <c r="X25" t="n">
-        <v>1319.459739407057</v>
+        <v>1034.14228831466</v>
       </c>
       <c r="Y25" t="n">
-        <v>1098.667160263527</v>
+        <v>813.3497091711304</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6247,31 +6247,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>869.9745311434712</v>
+        <v>513.8536007400667</v>
       </c>
       <c r="C28" t="n">
-        <v>701.0383482155643</v>
+        <v>344.9174178121598</v>
       </c>
       <c r="D28" t="n">
-        <v>550.9217088032285</v>
+        <v>344.9174178121598</v>
       </c>
       <c r="E28" t="n">
-        <v>403.0086152208354</v>
+        <v>344.9174178121598</v>
       </c>
       <c r="F28" t="n">
-        <v>256.118667722925</v>
+        <v>344.9174178121598</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270397</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6390,46 +6390,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797698</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U28" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V28" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W28" t="n">
-        <v>1500.405126015258</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X28" t="n">
-        <v>1272.415575117241</v>
+        <v>916.2946447138365</v>
       </c>
       <c r="Y28" t="n">
-        <v>1051.622995973711</v>
+        <v>695.5020655703064</v>
       </c>
     </row>
     <row r="29">
@@ -6457,7 +6457,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192616</v>
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>800.5007694647277</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>800.5007694647277</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>650.3841300523919</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>982.1492342949674</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6694,55 +6694,55 @@
         <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192608</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756267</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468473</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>929.7309773356195</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832664</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1144.284195611859</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>929.7309773356195</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075825</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.89852635594</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068013</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273912</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803939</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803939</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>634.560372056552</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1231.938859683104</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2971.848747074063</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>2802.912564146156</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>2652.79592473382</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>2504.882831151427</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>2504.882831151427</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>2337.686731866307</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>2337.686731866307</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866307</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296631</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.61201282217</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.01060699811</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729145</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.430181389153</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098138</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671697</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398596</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4656.264061336414</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4473.409226991318</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4253.807762014259</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>3964.732535358457</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>3710.048047152571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>3420.63087711561</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>3192.641326217593</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>2971.848747074063</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192609</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111718</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797193</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756267</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756267</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>243.4633055756267</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>840.8417932021788</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1468.439756756786</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2020.349486996073</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2443.972636491141</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>762.5477693179095</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>593.6115863900026</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>484.811296842975</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>484.811296842975</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>484.811296842975</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>317.615197557855</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000531</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235166</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258107</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602305</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396418</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359457</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614396</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179095</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7387,49 +7387,49 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>245.2306927803938</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438167</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>951.7772127656159</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>782.841029837709</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>632.7243904253733</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429802</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1871.624977674364</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7636,31 +7636,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>740.5562989961527</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>740.5562989961527</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1368.15426255076</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1920.063992790047</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2343.687142285115</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400721</v>
+        <v>784.5811134804959</v>
       </c>
       <c r="C46" t="n">
-        <v>513.8536007400721</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282753</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1959.113366595131</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1704.428878389244</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1415.011708352283</v>
       </c>
       <c r="X46" t="n">
-        <v>916.294644713842</v>
+        <v>1187.022157454266</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703119</v>
+        <v>966.2295783107356</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>-9.481304630298837e-13</v>
+        <v>-1.876970801006905e-12</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23314,7 +23314,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>2.046363078989089e-12</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>104.8770068749577</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>9.000252501566308</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23655,22 +23655,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>119.8635921600923</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23703,13 +23703,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>180.5336875992949</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23895,16 +23895,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>126.7126101431586</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>75.84421273177716</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,10 +24183,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>226.4057028288546</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24423,13 +24423,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>173.4237883572461</v>
+        <v>50.29392045468941</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24606,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>4.845153664065236</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>57.2291039219467</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>127.9379057921829</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>6.176967258617395</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>32.15184655856102</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>40.90318636665509</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,10 +25842,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>147.3599015160439</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>24.63391537253352</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>20.61870490125415</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>871852.9617976948</v>
+        <v>871852.9617976947</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>857263.0331147034</v>
+        <v>857263.0331147037</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>857263.0331147035</v>
+        <v>857263.0331147036</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>857263.0331147035</v>
+        <v>857263.0331147036</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>857263.0331147036</v>
+        <v>857263.0331147035</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>857263.0331147036</v>
+        <v>857263.0331147034</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>857263.0331147035</v>
+        <v>857263.0331147037</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>857263.0331147037</v>
+        <v>857263.0331147035</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>857263.0331147036</v>
+        <v>857263.0331147035</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>857263.0331147038</v>
+        <v>857263.0331147035</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>857263.0331147037</v>
+        <v>857263.0331147035</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>857263.0331147035</v>
+        <v>857263.0331147036</v>
       </c>
     </row>
   </sheetData>
@@ -26313,40 +26313,40 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>574729.2389049984</v>
+      </c>
+      <c r="C2" t="n">
+        <v>574729.2389049985</v>
+      </c>
+      <c r="D2" t="n">
         <v>574729.2389049986</v>
       </c>
-      <c r="C2" t="n">
-        <v>574729.2389049984</v>
-      </c>
-      <c r="D2" t="n">
-        <v>574729.2389049985</v>
-      </c>
       <c r="E2" t="n">
-        <v>565002.6197830042</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="F2" t="n">
-        <v>565002.6197830042</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="G2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="H2" t="n">
-        <v>565002.6197830046</v>
+        <v>565002.6197830043</v>
       </c>
       <c r="I2" t="n">
         <v>565002.6197830045</v>
       </c>
       <c r="J2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="K2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="L2" t="n">
-        <v>565002.6197830046</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="M2" t="n">
-        <v>565002.6197830046</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="N2" t="n">
         <v>565002.6197830044</v>
@@ -26355,7 +26355,7 @@
         <v>565002.6197830044</v>
       </c>
       <c r="P2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830046</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073548</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.246394276677165e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>4.40260464529274e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89744.12305813245</v>
+        <v>89744.12305813239</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813245</v>
+        <v>89744.12305813246</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813245</v>
+        <v>89744.12305813251</v>
       </c>
       <c r="E4" t="n">
         <v>10557.08828678121</v>
@@ -26499,13 +26499,13 @@
         <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-951693.57044212</v>
+        <v>-951693.5704421203</v>
       </c>
       <c r="C6" t="n">
+        <v>377051.1752854732</v>
+      </c>
+      <c r="D6" t="n">
         <v>377051.1752854729</v>
       </c>
-      <c r="D6" t="n">
-        <v>377051.1752854728</v>
-      </c>
       <c r="E6" t="n">
-        <v>127910.5398649611</v>
+        <v>127563.160610604</v>
       </c>
       <c r="F6" t="n">
-        <v>453323.0016723159</v>
+        <v>452975.6224179591</v>
       </c>
       <c r="G6" t="n">
-        <v>453323.0016723159</v>
+        <v>452975.6224179592</v>
       </c>
       <c r="H6" t="n">
-        <v>453323.0016723163</v>
+        <v>452975.622417959</v>
       </c>
       <c r="I6" t="n">
-        <v>453323.0016723162</v>
+        <v>452975.6224179592</v>
       </c>
       <c r="J6" t="n">
-        <v>235791.7992750384</v>
+        <v>235444.4200206816</v>
       </c>
       <c r="K6" t="n">
-        <v>453323.0016723159</v>
+        <v>452975.6224179591</v>
       </c>
       <c r="L6" t="n">
-        <v>453323.0016723158</v>
+        <v>452975.6224179592</v>
       </c>
       <c r="M6" t="n">
-        <v>368267.9737368046</v>
+        <v>367920.5944824473</v>
       </c>
       <c r="N6" t="n">
-        <v>453323.001672316</v>
+        <v>452975.6224179591</v>
       </c>
       <c r="O6" t="n">
-        <v>453323.0016723161</v>
+        <v>452975.6224179591</v>
       </c>
       <c r="P6" t="n">
-        <v>453323.0016723162</v>
+        <v>452975.6224179593</v>
       </c>
     </row>
   </sheetData>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26819,13 +26819,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26989,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697355</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697355</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>249.3984474563751</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27387,7 +27387,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>44.6896862895999</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27.98010635618829</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,25 +27587,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>41.51960553688741</v>
       </c>
     </row>
     <row r="5">
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>64.83610495833375</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>24.96523205584583</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
@@ -27681,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27776,10 +27776,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27791,10 +27791,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>65.30189817846907</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>51.24558311758216</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27855,22 +27855,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>36.17662488027173</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>93.80217084441284</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28013,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>24.11964825229715</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>75.50340795433992</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28392,7 +28392,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28496,7 +28496,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>-7.541226902200529e-12</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -29292,7 +29292,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29462,7 +29462,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>-2.430161791044281e-12</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -30279,7 +30279,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>-1.148716484183545e-12</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30401,7 +30401,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>5.184593495262864e-12</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -31041,10 +31041,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I2" t="n">
         <v>168.89895979748</v>
@@ -31053,31 +31053,31 @@
         <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R2" t="n">
         <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T2" t="n">
         <v>19.17787942451121</v>
@@ -31126,43 +31126,43 @@
         <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J3" t="n">
         <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,19 +31205,19 @@
         <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K4" t="n">
         <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N4" t="n">
         <v>300.7247737883116</v>
@@ -31232,13 +31232,13 @@
         <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S4" t="n">
         <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,40 +31837,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>639.8517673857166</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32028,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,40 +32074,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>353.2560498238282</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32323,10 +32323,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N18" t="n">
-        <v>193.1175412796309</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32335,10 +32335,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32548,34 +32548,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32706,7 +32706,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32797,22 +32797,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>400.8433522134843</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33022,10 +33022,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>363.5371514786837</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33523,16 +33523,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>531.8166820790237</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>250.1723312270658</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669205</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,37 +34213,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>581.3243739860818</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.87657862147</v>
+        <v>466.5925882502527</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817556</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236509</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,37 +34450,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>314.4610577451597</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34701,28 +34701,28 @@
         <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882195</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193721</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037197</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L3" t="n">
         <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306628</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701982</v>
@@ -34871,13 +34871,13 @@
         <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789371</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>508.5100553023833</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>213.2742757378066</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35813,19 +35813,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35971,10 +35971,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N18" t="n">
-        <v>61.77582919629761</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -35983,10 +35983,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36129,7 +36129,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36354,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36445,22 +36445,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>266.868944799154</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36758,7 +36758,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191267</v>
       </c>
       <c r="M28" t="n">
         <v>426.2724270010451</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>220.9409070342392</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37171,7 +37171,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>393.2623022991496</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462697</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>110.1905571410443</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.567533492471</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>439.1903400640635</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071398</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036775</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>174.4792836591382</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_16_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_16_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1983673.995925602</v>
+        <v>1985434.526228387</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283189</v>
+        <v>416855.1052283192</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>133.3353942071055</v>
+        <v>42.64559995940225</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734116405</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -834,7 +834,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004729</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>177.0650478152074</v>
+        <v>124.2292170629834</v>
       </c>
     </row>
     <row r="5">
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,7 +913,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>269.6425323314746</v>
+        <v>232.8259547974229</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>37.68656955246517</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>45.10683729225614</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1135,19 +1135,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>76.97130521239234</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>374.7451007731817</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1308,10 +1308,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>34.98723076369705</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>13.42874471570741</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1429,7 +1429,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>156.5238857907025</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>212.5602966632231</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465737</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>20.43112068613155</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>109.8058856274537</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>89.67992556049168</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>157.7778550769723</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>201.8437228691386</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2560,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2718,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892427719</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>41.55695577161193</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2797,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2952,13 +2952,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>35.55160172423379</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>18.49605685438627</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>105.6507867899569</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>102.1557845699813</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>251.0718348128881</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>265.56576948799</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2047.583838282732</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
-        <v>1678.62132134232</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.35562273557</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927146</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927146</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993395</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U2" t="n">
-        <v>2866.097597267231</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V2" t="n">
-        <v>2535.03470992366</v>
+        <v>2741.012457539435</v>
       </c>
       <c r="W2" t="n">
-        <v>2182.266054653546</v>
+        <v>2388.243802269321</v>
       </c>
       <c r="X2" t="n">
-        <v>2182.266054653546</v>
+        <v>2388.243802269321</v>
       </c>
       <c r="Y2" t="n">
-        <v>2182.266054653546</v>
+        <v>2388.243802269321</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811085</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999815</v>
+        <v>1527.64310427581</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387302</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332748</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601598</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>936.5735814686067</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>846.0716871064742</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218345</v>
+        <v>827.0643955080121</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228009</v>
+        <v>920.7416649986294</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031482</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158137</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992585</v>
+        <v>2446.503393068412</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.91239341064</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886743</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533343</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>994.2880032601529</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C4" t="n">
-        <v>825.351820332246</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D4" t="n">
-        <v>675.2351809199102</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>527.3220873375171</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>380.4321398396067</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791191</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764917</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760409</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935979</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V4" t="n">
-        <v>1582.779602640134</v>
+        <v>1672.610059882605</v>
       </c>
       <c r="W4" t="n">
-        <v>1582.779602640134</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X4" t="n">
-        <v>1354.790051742117</v>
+        <v>1155.203338947627</v>
       </c>
       <c r="Y4" t="n">
-        <v>1175.936468090393</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="5">
@@ -4543,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2277.953133796418</v>
+        <v>1127.748203495403</v>
       </c>
       <c r="C5" t="n">
-        <v>1908.990616856006</v>
+        <v>1127.748203495403</v>
       </c>
       <c r="D5" t="n">
-        <v>1550.724918249256</v>
+        <v>1127.748203495403</v>
       </c>
       <c r="E5" t="n">
-        <v>1164.936665651011</v>
+        <v>1127.748203495403</v>
       </c>
       <c r="F5" t="n">
-        <v>753.9507608614038</v>
+        <v>716.762298705796</v>
       </c>
       <c r="G5" t="n">
-        <v>338.8783107064002</v>
+        <v>301.6898485507924</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4600,19 +4600,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410103</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066532</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W5" t="n">
-        <v>2277.953133796418</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X5" t="n">
-        <v>2277.953133796418</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y5" t="n">
-        <v>2277.953133796418</v>
+        <v>1514.348043559525</v>
       </c>
     </row>
     <row r="6">
@@ -4637,16 +4637,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>777.6936570343842</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C7" t="n">
-        <v>608.7574741064773</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D7" t="n">
-        <v>458.6408346941415</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E7" t="n">
-        <v>310.7277411117484</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1889.227306116306</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.541421943132</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.541421943132</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="U7" t="n">
-        <v>1697.541421943132</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="V7" t="n">
-        <v>1697.541421943132</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W7" t="n">
-        <v>1408.124251906171</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X7" t="n">
-        <v>1180.134701008154</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y7" t="n">
-        <v>959.3421218646239</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1238.038871968309</v>
+        <v>1381.278680221568</v>
       </c>
       <c r="C8" t="n">
-        <v>1238.038871968309</v>
+        <v>1012.316163281156</v>
       </c>
       <c r="D8" t="n">
-        <v>879.7731733615581</v>
+        <v>1012.316163281156</v>
       </c>
       <c r="E8" t="n">
-        <v>493.9849207633138</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>487.0394200141104</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
         <v>108.5090151927147</v>
@@ -4801,55 +4801,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883007</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2741.012457539436</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="W8" t="n">
-        <v>2388.243802269322</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X8" t="n">
-        <v>2014.778044008242</v>
+        <v>2158.017852261502</v>
       </c>
       <c r="Y8" t="n">
-        <v>1624.63871203243</v>
+        <v>1767.87852028569</v>
       </c>
     </row>
     <row r="9">
@@ -4874,16 +4874,16 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1091.613680441807</v>
+        <v>883.4114536130581</v>
       </c>
       <c r="C10" t="n">
-        <v>922.6774975139006</v>
+        <v>714.4752706851513</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>564.3586312728155</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>416.4455376904224</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>269.555590192512</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>101.852753567231</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1913.730159486768</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1722.044275313594</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1722.044275313594</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U10" t="n">
-        <v>1722.044275313594</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V10" t="n">
-        <v>1722.044275313594</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="W10" t="n">
-        <v>1722.044275313594</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="X10" t="n">
-        <v>1494.054724415577</v>
+        <v>1285.852497586828</v>
       </c>
       <c r="Y10" t="n">
-        <v>1273.262145272047</v>
+        <v>1065.059918443298</v>
       </c>
     </row>
     <row r="11">
@@ -5035,13 +5035,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192589</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111713</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075805</v>
@@ -5056,10 +5056,10 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5114,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J12" t="n">
         <v>245.2306927803937</v>
@@ -5126,13 +5126,13 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>776.17510664033</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266882</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1089.57599612053</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C13" t="n">
-        <v>920.6398131926233</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>770.5231737802875</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>622.6100801978944</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>475.720132699984</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5232,19 +5232,19 @@
         <v>2264.108249235165</v>
       </c>
       <c r="U13" t="n">
-        <v>2264.108249235165</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V13" t="n">
-        <v>2009.423761029278</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W13" t="n">
-        <v>1720.006590992317</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X13" t="n">
-        <v>1492.0170400943</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y13" t="n">
-        <v>1271.22446095077</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="14">
@@ -5254,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5269,13 +5269,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192588</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
@@ -5305,25 +5305,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5351,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J15" t="n">
         <v>245.2306927803937</v>
@@ -5366,10 +5366,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266882</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>874.8686257536426</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400712</v>
+        <v>705.9324428257357</v>
       </c>
       <c r="D16" t="n">
-        <v>363.7369613277355</v>
+        <v>555.8158034134</v>
       </c>
       <c r="E16" t="n">
-        <v>363.7369613277355</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>363.7369613277355</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>196.5408620426154</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5463,25 +5463,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>2049.400878868277</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1794.71639066239</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1505.29922062543</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1277.309669727412</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>1056.517090583882</v>
       </c>
     </row>
     <row r="17">
@@ -5491,46 +5491,46 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5542,25 +5542,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5588,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803937</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>733.4550657171301</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="C19" t="n">
-        <v>564.5188827892232</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D19" t="n">
-        <v>414.4022433768874</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E19" t="n">
-        <v>266.4891497944943</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F19" t="n">
-        <v>266.4891497944943</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487567</v>
+        <v>2104.736678450344</v>
       </c>
       <c r="U19" t="n">
-        <v>1907.987318831765</v>
+        <v>1815.661451794542</v>
       </c>
       <c r="V19" t="n">
-        <v>1653.302830625878</v>
+        <v>1560.976963588655</v>
       </c>
       <c r="W19" t="n">
-        <v>1363.885660588917</v>
+        <v>1271.559793551694</v>
       </c>
       <c r="X19" t="n">
-        <v>1135.8961096909</v>
+        <v>1043.570242653677</v>
       </c>
       <c r="Y19" t="n">
-        <v>915.1035305473698</v>
+        <v>822.7776635101469</v>
       </c>
     </row>
     <row r="20">
@@ -5746,10 +5746,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5773,7 +5773,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803937</v>
@@ -5901,13 +5901,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5980,16 +5980,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -5998,10 +5998,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803937</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>631.7012443408906</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1551.549009249638</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1262.131839212678</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1034.14228831466</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>813.3497091711304</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
@@ -6229,16 +6229,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6247,31 +6247,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400667</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121598</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121598</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121598</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121598</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270397</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6390,46 +6390,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797698</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910805</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570813</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832658</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487563</v>
+        <v>2404.986360578632</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510504</v>
+        <v>2185.384895601574</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854702</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648815</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611854</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138365</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703064</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="29">
@@ -6454,28 +6454,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6484,7 +6484,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>800.5007694647277</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C31" t="n">
-        <v>800.5007694647277</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D31" t="n">
-        <v>650.3841300523919</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1202.941813438498</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y31" t="n">
-        <v>982.1492342949674</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="32">
@@ -6688,10 +6688,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6882,10 +6882,10 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
         <v>2035.268256189238</v>
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362683</v>
@@ -6934,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7122,25 +7122,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="38">
@@ -7311,22 +7311,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
@@ -7408,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E43" t="n">
-        <v>197.0043242297712</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>197.0043242297712</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7596,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="44">
@@ -7645,13 +7645,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7663,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>784.5811134804959</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>615.644930552589</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>465.5282911402533</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603201</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1959.113366595131</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1704.428878389244</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1415.011708352283</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1187.022157454266</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>966.2295783107356</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>-1.876970801006905e-12</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>9.237055564881302e-13</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>9.000252501566308</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>73.624177726021</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>119.8635921600923</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,13 +23703,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>176.3785887617905</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23749,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23904,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>75.84421273177716</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>59.62759525031598</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24141,10 +24141,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24375,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>50.29392045468941</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.2291039219467</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>139.4693302300327</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24840,13 +24840,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>131.695219374394</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>127.9379057921829</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,13 +25362,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>180.5336875992872</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>63.36835372228751</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,13 +25836,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>35.11263957635606</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>20.61870490125415</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>871852.9617976947</v>
+        <v>871852.9617976948</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>857263.0331147037</v>
+        <v>857263.0331147036</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>857263.0331147036</v>
+        <v>857263.0331147035</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>857263.0331147036</v>
+        <v>857263.0331147035</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>857263.0331147034</v>
+        <v>857263.0331147036</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>857263.0331147037</v>
+        <v>857263.0331147035</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>857263.0331147035</v>
+        <v>857263.0331147037</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>857263.0331147035</v>
+        <v>857263.0331147036</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>857263.0331147035</v>
+        <v>857263.0331147037</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>857263.0331147036</v>
+        <v>857263.0331147035</v>
       </c>
     </row>
   </sheetData>
@@ -26322,25 +26322,25 @@
         <v>574729.2389049986</v>
       </c>
       <c r="E2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830042</v>
       </c>
       <c r="F2" t="n">
         <v>565002.6197830044</v>
       </c>
       <c r="G2" t="n">
+        <v>565002.6197830043</v>
+      </c>
+      <c r="H2" t="n">
         <v>565002.6197830045</v>
       </c>
-      <c r="H2" t="n">
-        <v>565002.6197830043</v>
-      </c>
       <c r="I2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="J2" t="n">
         <v>565002.6197830045</v>
       </c>
-      <c r="J2" t="n">
-        <v>565002.6197830044</v>
-      </c>
       <c r="K2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="L2" t="n">
         <v>565002.6197830045</v>
@@ -26355,7 +26355,7 @@
         <v>565002.6197830044</v>
       </c>
       <c r="P2" t="n">
-        <v>565002.6197830046</v>
+        <v>565002.6197830044</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073548</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89744.12305813239</v>
+        <v>89744.12305813257</v>
       </c>
       <c r="C4" t="n">
+        <v>89744.12305813251</v>
+      </c>
+      <c r="D4" t="n">
         <v>89744.12305813246</v>
-      </c>
-      <c r="D4" t="n">
-        <v>89744.12305813251</v>
       </c>
       <c r="E4" t="n">
         <v>10557.08828678121</v>
@@ -26435,7 +26435,7 @@
         <v>10557.08828678121</v>
       </c>
       <c r="H4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678125</v>
       </c>
       <c r="I4" t="n">
         <v>10557.08828678121</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-951693.5704421203</v>
+        <v>-951693.5704421196</v>
       </c>
       <c r="C6" t="n">
-        <v>377051.1752854732</v>
+        <v>377051.1752854725</v>
       </c>
       <c r="D6" t="n">
         <v>377051.1752854729</v>
       </c>
       <c r="E6" t="n">
-        <v>127563.160610604</v>
+        <v>127875.8019395253</v>
       </c>
       <c r="F6" t="n">
-        <v>452975.6224179591</v>
+        <v>453288.2637468804</v>
       </c>
       <c r="G6" t="n">
-        <v>452975.6224179592</v>
+        <v>453288.2637468801</v>
       </c>
       <c r="H6" t="n">
-        <v>452975.622417959</v>
+        <v>453288.2637468805</v>
       </c>
       <c r="I6" t="n">
-        <v>452975.6224179592</v>
+        <v>453288.2637468804</v>
       </c>
       <c r="J6" t="n">
-        <v>235444.4200206816</v>
+        <v>235757.061349603</v>
       </c>
       <c r="K6" t="n">
-        <v>452975.6224179591</v>
+        <v>453288.2637468805</v>
       </c>
       <c r="L6" t="n">
-        <v>452975.6224179592</v>
+        <v>453288.2637468805</v>
       </c>
       <c r="M6" t="n">
-        <v>367920.5944824473</v>
+        <v>368233.2358113686</v>
       </c>
       <c r="N6" t="n">
-        <v>452975.6224179591</v>
+        <v>453288.2637468803</v>
       </c>
       <c r="O6" t="n">
-        <v>452975.6224179591</v>
+        <v>453288.2637468803</v>
       </c>
       <c r="P6" t="n">
-        <v>452975.6224179593</v>
+        <v>453288.2637468803</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022929</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>249.3984474563751</v>
+        <v>340.0882417040783</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983806</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27599,13 +27599,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>41.51960553688741</v>
+        <v>94.3554362891114</v>
       </c>
     </row>
     <row r="5">
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>24.96523205584583</v>
+        <v>61.78180958989753</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -27681,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27794,7 +27794,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>51.24558311758216</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>174.4421119839131</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -27855,19 +27855,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>304.9590648598694</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>36.17662488027173</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28028,10 +28028,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>109.7677841506237</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>75.50340795433992</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -28332,7 +28332,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28493,7 +28493,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>-3.150052318599543e-12</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -28851,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29292,7 +29292,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29462,7 +29462,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>-2.430161791044281e-12</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003813</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781692</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970252</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098821</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31840,22 +31840,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>337.5641188593851</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,10 +31867,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32028,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32077,22 +32077,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982898</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,10 +32104,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34152,7 +34152,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34386,7 +34386,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669223</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554007</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923324</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129117</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882195</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193721</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037197</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222489</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597719</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306628</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789371</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>199.0097390795109</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>302.0934576762715</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35813,19 +35813,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36129,7 +36129,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36758,7 +36758,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191267</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
         <v>426.2724270010451</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37800,7 +37800,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38034,7 +38034,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
